--- a/pred_ohlcv/54_21/2020-01-19 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ETH ohlcv.xlsx
@@ -4682,7 +4682,7 @@
         <v>-900.6664019759453</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-879.6208019759453</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-846.0809019759452</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1028.235713087056</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1030.026313087056</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-943.2237936326042</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-943.2237936326042</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-713.1181936326042</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-818.1141936326042</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-843.1299936326042</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-940.2152936326041</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-914.0689936326041</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-705.7637936326041</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-720.7530936326041</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-732.919493632604</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-700.731093632604</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-691.747493632604</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-721.242993632604</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2112.850890229341</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2072.271990229341</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2072.271990229341</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2132.342390229341</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2141.895190229341</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2135.042190229341</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2151.348190229341</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2136.689690229341</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2147.817790229341</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2113.211090229341</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2170.828090229341</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-2198.678090229341</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-2347.585690229341</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-3872.344858127909</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-3981.408186141063</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3804.808517952249</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3860.075672493039</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-3860.075672493039</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-3692.871072493039</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3737.89634128154</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3744.33634128154</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3705.37914128154</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3748.45434128154</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3647.50964128154</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3762.05324128154</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-3762.05324128154</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-3787.90874128154</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-3772.80384128154</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-3720.746141281541</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-3639.88954128154</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-3252.62034128154</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-3252.62034128154</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-3459.43134128154</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-3219.42124128154</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-3219.42124128154</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3271.79954128154</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-3297.72944128154</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-3297.72944128154</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-3297.584941281541</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-3326.760341281541</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-3648.808641281541</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-3630.66368821611</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-3630.66368821611</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-3577.651742995144</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-3577.651742995144</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-3705.539842995144</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-3659.318542995144</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-3872.701142995144</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3743.540642995144</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-3721.824574956029</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-3646.701936420231</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-3597.309415556553</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3613.429315556553</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3530.219715556553</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3563.807515556553</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3533.872615556553</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-3543.803615556553</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-3540.516115556553</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3540.516115556553</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-3562.765415556553</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-3563.991313755215</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-3563.991313755215</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-3489.686011953877</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-3455.076371624659</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-3455.076371624659</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-3500.712471624659</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-3500.712471624659</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-3510.419771624659</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-3475.304271624659</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-3483.304271624659</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3483.304271624659</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3494.522271624659</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3486.501971624659</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3492.410171624659</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3552.914871624659</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3458.984371624659</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3504.444171624659</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3504.444171624659</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-3661.36372597974</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-3717.98282597974</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-3700.68412597974</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-3519.29972597974</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-4408.595522865537</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-4466.441622865536</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-4279.416722865536</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-4343.093422865536</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-4330.846422865537</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-4330.846422865537</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-4165.692922865536</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-4137.511822865536</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-4137.511822865536</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-4188.171593314085</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-4148.372979329916</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-4148.372979329916</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-4136.152779329916</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-4090.838111679759</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-4191.943711679759</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-4185.165611679759</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-4183.547711679758</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-4058.371111679759</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-3818.471003096293</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-4105.040603096294</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-4105.040603096294</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-4130.492207853165</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-4224.789107853166</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-4080.724055863774</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-4010.450679899696</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-4010.450679899696</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-3909.455879899696</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-3985.256779899696</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-3980.598979899696</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-3975.266544704754</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-3975.266544704754</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3979.061744704754</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-4032.777844704754</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-4041.373444704754</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-3952.249744704754</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-3895.022544704754</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-3822.814244704754</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3613.651827123194</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3656.105227123194</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3684.589486437178</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3696.194986437178</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3710.442086437178</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3706.075086437178</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3707.075086437178</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3677.455786437178</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3465.317386437178</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3527.233314171349</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3737.198409878485</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-3763.764409878484</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-3757.347009878485</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-3676.544109878485</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-3847.804509878484</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-3961.154609878484</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-4173.200389111237</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-4180.106889111237</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-4248.874589111238</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-4230.672689111238</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-4245.238989111238</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-4244.432889111238</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-4268.385389111239</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-4263.676189111238</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-4263.676189111238</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-4288.873689111238</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-4280.432289111239</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-4269.155489111239</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-4269.155489111239</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-4397.18327397242</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-4389.257673972421</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-4389.257673972421</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-4365.103973972421</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-4360.351473972421</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-4370.874773972421</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-4365.569773972421</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-4365.056273972421</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-4365.056273972421</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-4401.059373972421</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-4429.636173972421</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-4435.852673972421</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-2436.596326375903</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-2436.596326375903</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-2162.501726375903</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-1621.293717974863</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-983.7464202766533</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-301.9573910270362</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>1081.840067750652</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>1783.452743742514</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>2442.259143742514</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>2693.542979931059</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>1947.663379931059</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>1169.463766342506</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>1048.446966342506</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>1228.750785149381</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>1243.354385149381</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>1336.749385149381</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>1188.476385149381</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>928.9672851493815</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>840.5405851493815</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>1087.293685149381</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>1087.293685149381</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>2503.653316953672</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>2390.874251187924</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>2756.371621356408</v>
       </c>
       <c r="H1272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>3359.127221356408</v>
       </c>
       <c r="H1273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>2870.425349843054</v>
       </c>
       <c r="H1274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>2537.973925858912</v>
       </c>
       <c r="H1275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>3120.705259871047</v>
       </c>
       <c r="H1276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>3414.655789015035</v>
       </c>
       <c r="H1277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ETH ohlcv.xlsx
@@ -4682,7 +4682,7 @@
         <v>-900.6664019759453</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-879.6208019759453</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-846.0809019759452</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1028.235713087056</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1030.026313087056</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-943.2237936326042</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-943.2237936326042</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-713.1181936326042</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-818.1141936326042</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-843.1299936326042</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-940.2152936326041</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-914.0689936326041</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-705.7637936326041</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-720.7530936326041</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-732.919493632604</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-700.731093632604</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-691.747493632604</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-721.242993632604</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2112.850890229341</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2072.271990229341</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2072.271990229341</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2132.342390229341</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2141.895190229341</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2135.042190229341</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2151.348190229341</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2136.689690229341</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2147.817790229341</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2113.211090229341</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2170.828090229341</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-2198.678090229341</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-2347.585690229341</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-3872.344858127909</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-3981.408186141063</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3804.808517952249</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3860.075672493039</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-3860.075672493039</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-3692.871072493039</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3737.89634128154</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3744.33634128154</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3705.37914128154</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3748.45434128154</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3647.50964128154</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3762.05324128154</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-3762.05324128154</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-3787.90874128154</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-3772.80384128154</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-3720.746141281541</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-3639.88954128154</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-3252.62034128154</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-3252.62034128154</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-3459.43134128154</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-3219.42124128154</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-3219.42124128154</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-3271.79954128154</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-3297.72944128154</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-3297.72944128154</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-3297.584941281541</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-3326.760341281541</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-3648.808641281541</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-3630.66368821611</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-3630.66368821611</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-3577.651742995144</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-3577.651742995144</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-3705.539842995144</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-3659.318542995144</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-3872.701142995144</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3743.540642995144</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-3721.824574956029</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-3646.701936420231</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-3597.309415556553</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3613.429315556553</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3530.219715556553</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3563.807515556553</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3533.872615556553</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-3543.803615556553</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-3540.516115556553</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3540.516115556553</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-3562.765415556553</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-3563.991313755215</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-3563.991313755215</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-3489.686011953877</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-3455.076371624659</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-3455.076371624659</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-3500.712471624659</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-3500.712471624659</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-3510.419771624659</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-3475.304271624659</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-3483.304271624659</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3483.304271624659</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3494.522271624659</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3486.501971624659</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3492.410171624659</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3552.914871624659</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3458.984371624659</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3504.444171624659</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3504.444171624659</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-3661.36372597974</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-3717.98282597974</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-3700.68412597974</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-3519.29972597974</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-4408.595522865537</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-4466.441622865536</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-4279.416722865536</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-4343.093422865536</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-4279.544422865536</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-4186.998322865536</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-4330.846422865537</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-4330.846422865537</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-4165.692922865536</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-4137.511822865536</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-4137.511822865536</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-4188.171593314085</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-4148.372979329916</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-4148.372979329916</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-4136.152779329916</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-4090.838111679759</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-4191.943711679759</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-4185.165611679759</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-4183.547711679758</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-4058.371111679759</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-3818.471003096293</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-4105.040603096294</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-4105.040603096294</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-4130.492207853165</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-4224.789107853166</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-4080.724055863774</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-4010.450679899696</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-4010.450679899696</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-3909.455879899696</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-3985.256779899696</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-3980.598979899696</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-3975.266544704754</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-3975.266544704754</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3979.061744704754</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-4032.777844704754</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-4041.373444704754</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-3952.249744704754</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-3895.022544704754</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-3822.814244704754</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-3821.554744704754</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-3814.122144704754</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-3814.122144704754</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-3640.72737271143</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3627.059472711429</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3632.050472711429</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3632.050472711429</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3597.076672711429</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3593.945827123194</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3668.844927123194</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3608.195127123194</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3608.195127123194</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3613.651827123194</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3656.105227123194</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3684.589486437178</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3696.194986437178</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3710.442086437178</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3706.075086437178</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3707.075086437178</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3677.455786437178</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3465.317386437178</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3527.233314171349</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-4173.200389111237</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-4180.106889111237</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-4248.874589111238</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-4230.672689111238</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-4245.238989111238</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-4244.432889111238</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-4268.385389111239</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-4263.676189111238</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-4263.676189111238</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-4288.873689111238</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-4280.432289111239</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-4226.328489111239</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-2436.596326375903</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-2436.596326375903</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-2162.501726375903</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-1621.293717974863</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-983.7464202766533</v>
       </c>
       <c r="H1212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-301.9573910270362</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>1081.840067750652</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>1783.452743742514</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>2442.259143742514</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>2693.542979931059</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>1947.663379931059</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>1169.463766342506</v>
       </c>
       <c r="H1241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>1048.446966342506</v>
       </c>
       <c r="H1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>1228.750785149381</v>
       </c>
       <c r="H1243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>1243.354385149381</v>
       </c>
       <c r="H1244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>1336.749385149381</v>
       </c>
       <c r="H1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>1188.476385149381</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>928.9672851493815</v>
       </c>
       <c r="H1247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>840.5405851493815</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>1087.293685149381</v>
       </c>
       <c r="H1249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>1087.293685149381</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>2332.708916953672</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>2503.653316953672</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>2886.320996099892</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>2390.874251187924</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>2756.371621356408</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>3359.127221356408</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>2870.425349843054</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>2537.973925858912</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>3120.705259871047</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>3414.655789015035</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
